--- a/FactoryStatsArrayExercise/factory-stats.xlsx
+++ b/FactoryStatsArrayExercise/factory-stats.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k00280835\source\repos\learn-csharp\FactoryStatsArrayExercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F3D9F9-4C84-4AAC-8042-334CEB95897E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14603BE4-DF38-4AD7-8B83-51B5B1A69ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9285" yWindow="2520" windowWidth="18900" windowHeight="11055" xr2:uid="{22FE1F42-5566-4D81-A0FA-012EC89921E9}"/>
+    <workbookView xWindow="9285" yWindow="2520" windowWidth="18900" windowHeight="11055" activeTab="1" xr2:uid="{22FE1F42-5566-4D81-A0FA-012EC89921E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Factories" sheetId="1" r:id="rId1"/>
+    <sheet name="transpose" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,6 +32,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -572,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F261B36E-3DDB-4E40-B9EA-0435176920F6}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,4 +829,221 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42303E5-C9BF-4648-94B9-B669B67CC901}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="str" cm="1">
+        <f t="array" ref="A1:I7">TRANSPOSE(Table1[#All])</f>
+        <v>Day</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Day 1</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Day 2</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Day 3</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Day 4</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Day 5</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Day 6</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Day 7</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Total</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <v>Factory 1</v>
+      </c>
+      <c r="B2">
+        <v>130</v>
+      </c>
+      <c r="C2">
+        <v>134</v>
+      </c>
+      <c r="D2">
+        <v>129</v>
+      </c>
+      <c r="E2">
+        <v>131</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+      <c r="G2">
+        <v>72</v>
+      </c>
+      <c r="H2">
+        <v>22</v>
+      </c>
+      <c r="I2">
+        <v>105.42857142857143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <v>Factory 2</v>
+      </c>
+      <c r="B3">
+        <v>225</v>
+      </c>
+      <c r="C3">
+        <v>241</v>
+      </c>
+      <c r="D3">
+        <v>244</v>
+      </c>
+      <c r="E3">
+        <v>239</v>
+      </c>
+      <c r="F3">
+        <v>209</v>
+      </c>
+      <c r="G3">
+        <v>40</v>
+      </c>
+      <c r="H3">
+        <v>28</v>
+      </c>
+      <c r="I3">
+        <v>175.14285714285714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <v>Factory 3</v>
+      </c>
+      <c r="B4">
+        <v>155</v>
+      </c>
+      <c r="C4">
+        <v>153</v>
+      </c>
+      <c r="D4">
+        <v>149</v>
+      </c>
+      <c r="E4">
+        <v>150</v>
+      </c>
+      <c r="F4">
+        <v>148</v>
+      </c>
+      <c r="G4">
+        <v>47</v>
+      </c>
+      <c r="H4">
+        <v>21</v>
+      </c>
+      <c r="I4">
+        <v>117.57142857142857</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <v>Factory 4</v>
+      </c>
+      <c r="B5">
+        <v>165</v>
+      </c>
+      <c r="C5">
+        <v>161</v>
+      </c>
+      <c r="D5">
+        <v>157</v>
+      </c>
+      <c r="E5">
+        <v>161</v>
+      </c>
+      <c r="F5">
+        <v>130</v>
+      </c>
+      <c r="G5">
+        <v>66</v>
+      </c>
+      <c r="H5">
+        <v>26</v>
+      </c>
+      <c r="I5">
+        <v>123.71428571428571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <v>Factory 5</v>
+      </c>
+      <c r="B6">
+        <v>145</v>
+      </c>
+      <c r="C6">
+        <v>146</v>
+      </c>
+      <c r="D6">
+        <v>145</v>
+      </c>
+      <c r="E6">
+        <v>151</v>
+      </c>
+      <c r="F6">
+        <v>140</v>
+      </c>
+      <c r="G6">
+        <v>44</v>
+      </c>
+      <c r="H6">
+        <v>23</v>
+      </c>
+      <c r="I6">
+        <v>113.42857142857143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <v>Total</v>
+      </c>
+      <c r="B7">
+        <v>820</v>
+      </c>
+      <c r="C7">
+        <v>835</v>
+      </c>
+      <c r="D7">
+        <v>824</v>
+      </c>
+      <c r="E7">
+        <v>832</v>
+      </c>
+      <c r="F7">
+        <v>747</v>
+      </c>
+      <c r="G7">
+        <v>269</v>
+      </c>
+      <c r="H7">
+        <v>120</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>